--- a/FUSION_1.0_Dataset.xlsx
+++ b/FUSION_1.0_Dataset.xlsx
@@ -3,7 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Frozen" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="FFPE" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="464">
   <si>
     <t>File</t>
   </si>
@@ -1349,6 +1350,60 @@
   </si>
   <si>
     <t>AACAATCCGAGTGGAC-1_153</t>
+  </si>
+  <si>
+    <t>Files</t>
+  </si>
+  <si>
+    <t>Column 2</t>
+  </si>
+  <si>
+    <t>Column 3</t>
+  </si>
+  <si>
+    <t>Column 4</t>
+  </si>
+  <si>
+    <t>Column 5</t>
+  </si>
+  <si>
+    <t>Column 6</t>
+  </si>
+  <si>
+    <t>V42D20-364_XY01_2235505.SVS</t>
+  </si>
+  <si>
+    <t>E V42D20-364_XY04_2240610.svs</t>
+  </si>
+  <si>
+    <t>E V42N07-339_XY01_3781.svs</t>
+  </si>
+  <si>
+    <t>E V42N07-339_XY04_F44.SVS</t>
+  </si>
+  <si>
+    <t>E V42N07-395_XY01_235142.svS</t>
+  </si>
+  <si>
+    <t>V42N07-395_XY04_235582.svS</t>
+  </si>
+  <si>
+    <t>E V42N07-399_XY01_3723.svs</t>
+  </si>
+  <si>
+    <t>E V42N07-399_XY04_3775.svs</t>
+  </si>
+  <si>
+    <t>E XY01_IU-21-015F.SVS</t>
+  </si>
+  <si>
+    <t>E XY02_IU-21-016F.SVS</t>
+  </si>
+  <si>
+    <t>E XY03_IU-21-019F.SVS</t>
+  </si>
+  <si>
+    <t>E XY04_IU-21-020F.SVS</t>
   </si>
 </sst>
 </file>
@@ -1454,8 +1509,14 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="1">
-    <tableStyle count="4" pivot="0" name="Sheet1-style">
+  <tableStyles count="2">
+    <tableStyle count="4" pivot="0" name="Frozen-style">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement dxfId="4" size="0" type="wholeTable"/>
+    </tableStyle>
+    <tableStyle count="4" pivot="0" name="FFPE-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
@@ -1469,15 +1530,33 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D1015" displayName="FUSION" name="FUSION" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D1015" displayName="Frozen" name="Frozen" id="1">
   <tableColumns count="4">
     <tableColumn name="File" id="1"/>
     <tableColumn name="Subject ID" id="2"/>
     <tableColumn name="Condition " id="3"/>
     <tableColumn name="Barcode" id="4"/>
   </tableColumns>
-  <tableStyleInfo name="Sheet1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Frozen-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F26" displayName="FFPE" name="FFPE" id="2">
+  <tableColumns count="6">
+    <tableColumn name="Files" id="1"/>
+    <tableColumn name="Column 2" id="2"/>
+    <tableColumn name="Column 3" id="3"/>
+    <tableColumn name="Column 4" id="4"/>
+    <tableColumn name="Column 5" id="5"/>
+    <tableColumn name="Column 6" id="6"/>
+  </tableColumns>
+  <tableStyleInfo name="FFPE-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -9012,4 +9091,269 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="27.75"/>
+    <col customWidth="1" min="2" max="6" width="22.63"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="22.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="2" ht="22.5" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" ht="22.5" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" ht="22.5" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" ht="22.5" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" ht="22.5" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" ht="22.5" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" ht="22.5" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" ht="22.5" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" ht="22.5" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" ht="22.5" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" ht="22.5" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" ht="22.5" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" ht="22.5" customHeight="1">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" ht="22.5" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" ht="22.5" customHeight="1">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" ht="22.5" customHeight="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" ht="22.5" customHeight="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" ht="22.5" customHeight="1">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" ht="22.5" customHeight="1">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" ht="22.5" customHeight="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" ht="22.5" customHeight="1">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" ht="22.5" customHeight="1">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" ht="22.5" customHeight="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" ht="22.5" customHeight="1">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" ht="22.5" customHeight="1">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>